--- a/templates/IssueBluePrintTest.xlsx
+++ b/templates/IssueBluePrintTest.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephankuche/CreateJiraIssues/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F6B96C-2A7A-4745-ABD3-89071E5E8AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A391455C-0F69-6A4E-957C-EC061ED05941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15900" yWindow="4600" windowWidth="35300" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="44340" windowHeight="26580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="12" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="49">
   <si>
     <t>Summary</t>
   </si>
@@ -65,54 +65,27 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>Sub-task</t>
-  </si>
-  <si>
     <t>Machine Learning</t>
   </si>
   <si>
-    <t>Capturing Model Training</t>
-  </si>
-  <si>
-    <t>Create Baseline Project</t>
-  </si>
-  <si>
     <t>Application Implementation</t>
   </si>
   <si>
-    <t>Configure dashboards in Insights according to template</t>
-  </si>
-  <si>
     <t>Studio Configuration</t>
   </si>
   <si>
-    <t>Add Users to Studio ( according to roles )</t>
-  </si>
-  <si>
     <t>Schema Configuration</t>
   </si>
   <si>
-    <t xml:space="preserve">Create Composite Enrichment in Setup </t>
-  </si>
-  <si>
     <t>System Integration Test (E2E)</t>
   </si>
   <si>
-    <t>Regression testing of E2E flow in PROD env</t>
-  </si>
-  <si>
     <t>User Acceptance Testing</t>
   </si>
   <si>
-    <t>Run Studio UAT</t>
-  </si>
-  <si>
     <t>User Onboarding</t>
   </si>
   <si>
-    <t>Key User Introduction to Hypatos Change Requests</t>
-  </si>
-  <si>
     <t>User Training</t>
   </si>
   <si>
@@ -122,18 +95,9 @@
     <t>Deployment</t>
   </si>
   <si>
-    <t>Handover to Customer Care</t>
-  </si>
-  <si>
     <t>Lessons learned</t>
   </si>
   <si>
-    <t xml:space="preserve">Create lessons learned page </t>
-  </si>
-  <si>
-    <t>Reporting and Monitoring</t>
-  </si>
-  <si>
     <t>Project Management</t>
   </si>
   <si>
@@ -143,71 +107,89 @@
     <t>Data Acquisition</t>
   </si>
   <si>
-    <t>Create StakeholderMapping</t>
-  </si>
-  <si>
     <t>Assessment</t>
   </si>
   <si>
     <t>Requirement Analysis</t>
   </si>
   <si>
-    <t>Prepare and send out data and documentation request</t>
-  </si>
-  <si>
     <t>Functional Design</t>
   </si>
   <si>
-    <t>Posting data analysis</t>
-  </si>
-  <si>
-    <t>ERP posting data, Hypatos Enrichment dashboard, Descriptive Statistics Analysis template</t>
-  </si>
-  <si>
     <t>Design</t>
   </si>
   <si>
-    <t>Create and populate Datapoint Template</t>
-  </si>
-  <si>
-    <t>Enrichment_Model_Training</t>
-  </si>
-  <si>
-    <t>Insights Standard Collections for Reporting and Monitoring</t>
-  </si>
-  <si>
-    <t>Configure Attribute Prediction, Configure Master Data Enrichment</t>
-  </si>
-  <si>
-    <t>Create EM Ticket</t>
-  </si>
-  <si>
     <t>Functional_Testing</t>
   </si>
   <si>
-    <t>CUS to perform funct. Testing</t>
-  </si>
-  <si>
-    <t>Testing_Phase</t>
-  </si>
-  <si>
     <t>Hypercare_Phase</t>
   </si>
   <si>
     <t>Project</t>
   </si>
   <si>
-    <t>Rollout</t>
-  </si>
-  <si>
-    <t>Capturing Model Training,Enrichment_Model_Training,Studio Configuration,Schema Configuration,Reporting and Monitoring</t>
+    <t>MileStone_Kickoff Workshop</t>
+  </si>
+  <si>
+    <t>MileStone_Training Data Confirmation</t>
+  </si>
+  <si>
+    <t>MileStone_SoW and Solution Design Confirmation</t>
+  </si>
+  <si>
+    <t>Integration Implementation</t>
+  </si>
+  <si>
+    <t>Document Inbound Configuration</t>
+  </si>
+  <si>
+    <t>Document Outbound Configuration</t>
+  </si>
+  <si>
+    <t>Integration Rules Implementation</t>
+  </si>
+  <si>
+    <t>Enrichment_Model_Configuration</t>
+  </si>
+  <si>
+    <t>Capturing Model Configuration</t>
+  </si>
+  <si>
+    <t>Reporting and Monitoring Configuration</t>
+  </si>
+  <si>
+    <t>MileStone_SIT approved</t>
+  </si>
+  <si>
+    <t>MileStone_Go Live</t>
+  </si>
+  <si>
+    <t>MileStone_UAT approved_Go Live decision</t>
+  </si>
+  <si>
+    <t>MileStone_Hypercare Closing_Handover to Customer Care</t>
+  </si>
+  <si>
+    <t>PO_Data_Inbound_Configuration</t>
+  </si>
+  <si>
+    <t>Posting_Data_Inbound_Configuration</t>
+  </si>
+  <si>
+    <t>Capturing Model Configuration,Enrichment_Model_Configuration,Document Inbound Configuration,Document Outbound Configuration,Posting_Data_Inbound_Configuration,PO_Data_Inbound_Configuration,Integration Rules Implementation,Reporting and Monitoring Configuration,Studio Configuration,Schema Configuration</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Pilot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,14 +222,6 @@
       <color rgb="FF000000"/>
       <name val="Lato"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -318,17 +292,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -344,16 +309,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -362,7 +332,527 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="102">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1161,10 +1651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D80F210-AA2F-4343-BD62-6442C4F4E9CE}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1176,804 +1666,920 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="A2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="C13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B21" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="C22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="B23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7">
         <v>7</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="11" t="s">
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="F38" s="7"/>
+      <c r="G38" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4">
+      <c r="B39" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G41" xr:uid="{2D80F210-AA2F-4343-BD62-6442C4F4E9CE}"/>
+  <autoFilter ref="A1:G39" xr:uid="{2D80F210-AA2F-4343-BD62-6442C4F4E9CE}"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="49" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="319"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="320"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="47" priority="342"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="341"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A18">
-    <cfRule type="duplicateValues" dxfId="45" priority="430"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="429"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:A28">
-    <cfRule type="duplicateValues" dxfId="43" priority="426"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="425"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39:A41 A19:A26 A29:A37">
-    <cfRule type="duplicateValues" dxfId="41" priority="427"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="428"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="545"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="546"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="duplicateValues" dxfId="97" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="204"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="95" priority="841"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="842"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="93" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="164"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13 A3:A4 A6:A10">
+    <cfRule type="duplicateValues" dxfId="91" priority="735"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="736"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="89" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="130"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="duplicateValues" dxfId="87" priority="863"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="864"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:A21">
+    <cfRule type="duplicateValues" dxfId="85" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="152"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="duplicateValues" dxfId="83" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="duplicateValues" dxfId="81" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="duplicateValues" dxfId="79" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="duplicateValues" dxfId="77" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="84"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="duplicateValues" dxfId="75" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="102"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39 A28 A30 A22:A25 A32:A35">
+    <cfRule type="duplicateValues" dxfId="73" priority="769"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="770"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="39" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="783"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="784"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="duplicateValues" dxfId="37" priority="108"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="801"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="802"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="duplicateValues" dxfId="67" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
+    <cfRule type="duplicateValues" dxfId="65" priority="837"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="838"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="duplicateValues" dxfId="63" priority="861"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="862"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="duplicateValues" dxfId="61" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="duplicateValues" dxfId="59" priority="297"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="298"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="duplicateValues" dxfId="57" priority="873"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="874"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="duplicateValues" dxfId="55" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="150"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="duplicateValues" dxfId="53" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="146"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="duplicateValues" dxfId="51" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="144"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="duplicateValues" dxfId="49" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="142"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="duplicateValues" dxfId="47" priority="887"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="888"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="duplicateValues" dxfId="45" priority="253"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="254"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="duplicateValues" dxfId="43" priority="265"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="266"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="duplicateValues" dxfId="41" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="duplicateValues" dxfId="39" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="264"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="duplicateValues" dxfId="37" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="118"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
     <cfRule type="duplicateValues" dxfId="35" priority="103"/>
     <cfRule type="duplicateValues" dxfId="34" priority="104"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="duplicateValues" dxfId="33" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="100"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="duplicateValues" dxfId="31" priority="94"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="93"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="duplicateValues" dxfId="29" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="88"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="duplicateValues" dxfId="27" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="duplicateValues" dxfId="25" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="duplicateValues" dxfId="23" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="duplicateValues" dxfId="21" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="60"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="19" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="785"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="786"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="duplicateValues" dxfId="17" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="803"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="804"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="duplicateValues" dxfId="29" priority="309"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="310"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="duplicateValues" dxfId="15" priority="102"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="839"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="840"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="duplicateValues" dxfId="25" priority="859"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="860"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="duplicateValues" dxfId="13" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="97"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="duplicateValues" dxfId="11" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="duplicateValues" dxfId="9" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="85"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="duplicateValues" dxfId="7" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="148"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="duplicateValues" dxfId="19" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="140"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="duplicateValues" dxfId="17" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="138"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="duplicateValues" dxfId="15" priority="889"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="890"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="duplicateValues" dxfId="5" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="256"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="duplicateValues" dxfId="11" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="108"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="duplicateValues" dxfId="9" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="duplicateValues" dxfId="7" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="duplicateValues" dxfId="3" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="116"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="duplicateValues" dxfId="3" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="80"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/IssueBluePrintTest.xlsx
+++ b/templates/IssueBluePrintTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephankuche/CreateJiraIssues/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A391455C-0F69-6A4E-957C-EC061ED05941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB392EB-B303-1B45-8BC3-59B6F165C901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44340" windowHeight="26580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="26580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="12" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="50">
   <si>
     <t>Summary</t>
   </si>
@@ -119,70 +119,73 @@
     <t>Design</t>
   </si>
   <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Integration Implementation</t>
+  </si>
+  <si>
+    <t>Document Inbound Configuration</t>
+  </si>
+  <si>
+    <t>Document Outbound Configuration</t>
+  </si>
+  <si>
+    <t>Integration Rules Implementation</t>
+  </si>
+  <si>
+    <t>Capturing Model Configuration</t>
+  </si>
+  <si>
+    <t>Reporting and Monitoring Configuration</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Pilot</t>
+  </si>
+  <si>
+    <t>Data Acquisition,Requirement Analysis</t>
+  </si>
+  <si>
+    <t>MileStone_Kickoff Workshop</t>
+  </si>
+  <si>
+    <t>MileStone_Training Data Confirmation</t>
+  </si>
+  <si>
+    <t>MileStone_SoW and Solution Design Confirmation</t>
+  </si>
+  <si>
+    <t>Capturing Model Configuration,Enrichment_Model_Configuration,Document Inbound Configuration,Document Outbound Configuration,Posting_Data_Inbound_Configuration,PO_Data_Inbound_Configuration,Integration Rules Implementation,Reporting and Monitoring Configuration,Studio Configuration,Schema Configuration</t>
+  </si>
+  <si>
+    <t>Enrichment_Model_Configuration</t>
+  </si>
+  <si>
+    <t>Posting_Data_Inbound_Configuration</t>
+  </si>
+  <si>
+    <t>PO_Data_Inbound_Configuration</t>
+  </si>
+  <si>
     <t>Functional_Testing</t>
   </si>
   <si>
+    <t>MileStone_SIT approved</t>
+  </si>
+  <si>
+    <t>MileStone_UAT approved_Go Live decision</t>
+  </si>
+  <si>
+    <t>MileStone_Go Live</t>
+  </si>
+  <si>
     <t>Hypercare_Phase</t>
   </si>
   <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>MileStone_Kickoff Workshop</t>
-  </si>
-  <si>
-    <t>MileStone_Training Data Confirmation</t>
-  </si>
-  <si>
-    <t>MileStone_SoW and Solution Design Confirmation</t>
-  </si>
-  <si>
-    <t>Integration Implementation</t>
-  </si>
-  <si>
-    <t>Document Inbound Configuration</t>
-  </si>
-  <si>
-    <t>Document Outbound Configuration</t>
-  </si>
-  <si>
-    <t>Integration Rules Implementation</t>
-  </si>
-  <si>
-    <t>Enrichment_Model_Configuration</t>
-  </si>
-  <si>
-    <t>Capturing Model Configuration</t>
-  </si>
-  <si>
-    <t>Reporting and Monitoring Configuration</t>
-  </si>
-  <si>
-    <t>MileStone_SIT approved</t>
-  </si>
-  <si>
-    <t>MileStone_Go Live</t>
-  </si>
-  <si>
-    <t>MileStone_UAT approved_Go Live decision</t>
-  </si>
-  <si>
     <t>MileStone_Hypercare Closing_Handover to Customer Care</t>
-  </si>
-  <si>
-    <t>PO_Data_Inbound_Configuration</t>
-  </si>
-  <si>
-    <t>Posting_Data_Inbound_Configuration</t>
-  </si>
-  <si>
-    <t>Capturing Model Configuration,Enrichment_Model_Configuration,Document Inbound Configuration,Document Outbound Configuration,Posting_Data_Inbound_Configuration,PO_Data_Inbound_Configuration,Integration Rules Implementation,Reporting and Monitoring Configuration,Studio Configuration,Schema Configuration</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Pilot</t>
   </si>
 </sst>
 </file>
@@ -312,15 +315,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -328,11 +327,95 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="102">
+  <dxfs count="110">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1654,15 +1737,16 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.83203125" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="5" max="5" width="69" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="35.5" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1690,10 +1774,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -1701,660 +1785,656 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="C5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="B10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="F11" s="13"/>
+      <c r="G11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="C12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="B16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7">
+      <c r="D16" s="6"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>33</v>
+        <v>41</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7">
-        <v>3</v>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7">
-        <v>2</v>
-      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7">
-        <v>2</v>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7">
+      <c r="E20" s="6"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="A22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7">
-        <v>14</v>
-      </c>
+      <c r="B24" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7">
-        <v>7</v>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="A26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13">
+        <v>14</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="12" t="s">
+      <c r="F35" s="13"/>
+      <c r="G35" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="12" t="s">
+      <c r="B36" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="E36" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7">
+      <c r="F36" s="13"/>
+      <c r="G36" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7">
+        <v>49</v>
+      </c>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13">
         <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7">
+      <c r="F38" s="13"/>
+      <c r="G38" s="13">
         <v>1</v>
       </c>
     </row>
@@ -2362,224 +2442,240 @@
       <c r="A39" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="8" t="s">
+      <c r="B39" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7">
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G39" xr:uid="{2D80F210-AA2F-4343-BD62-6442C4F4E9CE}"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="101" priority="319"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="320"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="99" priority="545"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="546"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="97" priority="203"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="130"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:A4">
+    <cfRule type="duplicateValues" dxfId="105" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="103" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="95" priority="841"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="842"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="93" priority="163"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="164"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13 A3:A4 A6:A10">
-    <cfRule type="duplicateValues" dxfId="91" priority="735"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="736"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="duplicateValues" dxfId="99" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="89" priority="129"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="130"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="87" priority="863"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="864"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:A21">
-    <cfRule type="duplicateValues" dxfId="85" priority="151"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="152"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="83" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="81" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15 A5:A6 A12 A8:A10">
+    <cfRule type="duplicateValues" dxfId="95" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="132"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="duplicateValues" dxfId="93" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="duplicateValues" dxfId="91" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="152"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A23">
+    <cfRule type="duplicateValues" dxfId="89" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="duplicateValues" dxfId="87" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="79" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="77" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
+    <cfRule type="duplicateValues" dxfId="81" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="75" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="102"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39 A28 A30 A22:A25 A32:A35">
-    <cfRule type="duplicateValues" dxfId="73" priority="769"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="770"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="71" priority="783"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="784"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="duplicateValues" dxfId="69" priority="801"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="802"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="duplicateValues" dxfId="67" priority="199"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39 A30 A32 A24:A27 A34:A35">
+    <cfRule type="duplicateValues" dxfId="77" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="134"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="duplicateValues" dxfId="75" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="duplicateValues" dxfId="65" priority="837"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="838"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="138"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="duplicateValues" dxfId="71" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="duplicateValues" dxfId="63" priority="861"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="862"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="duplicateValues" dxfId="61" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="duplicateValues" dxfId="67" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="duplicateValues" dxfId="59" priority="297"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="298"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="duplicateValues" dxfId="57" priority="873"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="874"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="duplicateValues" dxfId="63" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="duplicateValues" dxfId="55" priority="149"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="150"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="duplicateValues" dxfId="53" priority="145"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="duplicateValues" dxfId="51" priority="143"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="duplicateValues" dxfId="49" priority="141"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="142"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="duplicateValues" dxfId="47" priority="887"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="888"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="106"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="duplicateValues" dxfId="55" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="duplicateValues" dxfId="53" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="102"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="duplicateValues" dxfId="51" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="duplicateValues" dxfId="45" priority="253"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="254"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="duplicateValues" dxfId="43" priority="265"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="duplicateValues" dxfId="41" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="39" priority="263"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="duplicateValues" dxfId="37" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="88"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="duplicateValues" dxfId="41" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="122"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="duplicateValues" dxfId="39" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="duplicateValues" dxfId="35" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="104"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="33" priority="785"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="786"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="duplicateValues" dxfId="31" priority="803"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="804"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="duplicateValues" dxfId="29" priority="309"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="310"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="duplicateValues" dxfId="35" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="duplicateValues" dxfId="27" priority="839"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="840"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="140"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="duplicateValues" dxfId="31" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="duplicateValues" dxfId="25" priority="859"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="860"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="duplicateValues" dxfId="23" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="duplicateValues" dxfId="21" priority="147"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="148"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="duplicateValues" dxfId="19" priority="139"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="duplicateValues" dxfId="27" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="148"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="duplicateValues" dxfId="25" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="duplicateValues" dxfId="17" priority="137"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="138"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="duplicateValues" dxfId="15" priority="889"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="890"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="108"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="duplicateValues" dxfId="21" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="duplicateValues" dxfId="19" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="98"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="duplicateValues" dxfId="13" priority="255"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="256"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="duplicateValues" dxfId="11" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="duplicateValues" dxfId="9" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="duplicateValues" dxfId="7" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="duplicateValues" dxfId="5" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="86"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="duplicateValues" dxfId="7" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="duplicateValues" dxfId="5" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="duplicateValues" dxfId="3" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="duplicateValues" dxfId="1" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="72"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
